--- a/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,41 +452,217 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45334</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B28" t="n">
         <v>22</v>
       </c>
     </row>
@@ -501,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,25 +699,105 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
         <v>36</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,22 +650,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B27" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -677,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,14 +777,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -677,7 +678,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -775,6 +776,509 @@
       </c>
       <c r="B13" t="n">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-9.328610526082427</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.588067709779273</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-8.405298047685031</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.139946359187591</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.103712203244884</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.495214014083538</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.210786731604746</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.256957889919248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-6.043220605962373</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.582152657977653</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.269266416571188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.552649668880127</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.723004962107746</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.318089730255483</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-4.062784501879174</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.35992379942413</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.193902976796284</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.40727186514775</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.745794486172179</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.66582088440877</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-1.373244624311145</v>
+      </c>
+      <c r="D12" t="n">
+        <v>13.92853359343149</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.369596974554165</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.88683037856266</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.5667650920930954</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.1556563131828</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.3366734252903113</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.8905058682286</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1249815437621832</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15.59379818703069</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7409268646165125</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.47597811415699</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.233994461064829</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16.3063332581716</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.409886215454121</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16.87156784918817</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.804293909655246</v>
+      </c>
+      <c r="D20" t="n">
+        <v>17.18855183908811</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.013256891216585</v>
+      </c>
+      <c r="D21" t="n">
+        <v>17.98638676558129</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.491392306672088</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17.86931821250781</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.976514962469605</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19.60629096411755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.666408471373924</v>
+      </c>
+      <c r="D24" t="n">
+        <v>21.59294214326417</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.650721604159374</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.63115279117789</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.544514022518749</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24.63905621786057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>9.258362548266311</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.57768394099404</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>17</v>
+      </c>
+      <c r="C28" t="n">
+        <v>9.298648075449613</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.82719789139326</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+      <c r="C29" t="n">
+        <v>10.61401337999707</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.48158984623494</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.34991847544637</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.30276099256608</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10.53684903816501</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.7534097386284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>19</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.38622753865239</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.9543418011892</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" t="n">
+        <v>11.00977308022365</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26.4393451885655</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>19</v>
+      </c>
+      <c r="C34" t="n">
+        <v>11.690369109223</v>
+      </c>
+      <c r="D34" t="n">
+        <v>26.88986555005556</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
+++ b/po_analysis_by_asin/B0BLT4ZMGL_po_data.xlsx
@@ -789,7 +789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,16 +808,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -826,12 +816,6 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>-9.328610526082427</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.588067709779273</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -840,12 +824,6 @@
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" t="n">
-        <v>-8.405298047685031</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.139946359187591</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -854,12 +832,6 @@
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" t="n">
-        <v>-7.103712203244884</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.495214014083538</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -868,12 +840,6 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>-6.210786731604746</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.256957889919248</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -882,12 +848,6 @@
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>-6.043220605962373</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9.582152657977653</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -896,12 +856,6 @@
       <c r="B7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5.269266416571188</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.552649668880127</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -910,12 +864,6 @@
       <c r="B8" t="n">
         <v>2</v>
       </c>
-      <c r="C8" t="n">
-        <v>-4.723004962107746</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.318089730255483</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -924,12 +872,6 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>-4.062784501879174</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.35992379942413</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -938,12 +880,6 @@
       <c r="B10" t="n">
         <v>5</v>
       </c>
-      <c r="C10" t="n">
-        <v>-3.193902976796284</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.40727186514775</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -952,12 +888,6 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>-2.745794486172179</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.66582088440877</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -966,12 +896,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>-1.373244624311145</v>
-      </c>
-      <c r="D12" t="n">
-        <v>13.92853359343149</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -980,12 +904,6 @@
       <c r="B13" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.369596974554165</v>
-      </c>
-      <c r="D13" t="n">
-        <v>13.88683037856266</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -994,12 +912,6 @@
       <c r="B14" t="n">
         <v>7</v>
       </c>
-      <c r="C14" t="n">
-        <v>-0.5667650920930954</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.1556563131828</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1008,12 +920,6 @@
       <c r="B15" t="n">
         <v>7</v>
       </c>
-      <c r="C15" t="n">
-        <v>-0.3366734252903113</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.8905058682286</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1022,12 +928,6 @@
       <c r="B16" t="n">
         <v>8</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.1249815437621832</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15.59379818703069</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1036,12 +936,6 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.7409268646165125</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.47597811415699</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1050,12 +944,6 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
-      <c r="C18" t="n">
-        <v>1.233994461064829</v>
-      </c>
-      <c r="D18" t="n">
-        <v>16.3063332581716</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1064,12 +952,6 @@
       <c r="B19" t="n">
         <v>9</v>
       </c>
-      <c r="C19" t="n">
-        <v>1.409886215454121</v>
-      </c>
-      <c r="D19" t="n">
-        <v>16.87156784918817</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1078,12 +960,6 @@
       <c r="B20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="n">
-        <v>1.804293909655246</v>
-      </c>
-      <c r="D20" t="n">
-        <v>17.18855183908811</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1092,12 +968,6 @@
       <c r="B21" t="n">
         <v>10</v>
       </c>
-      <c r="C21" t="n">
-        <v>2.013256891216585</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17.98638676558129</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1106,12 +976,6 @@
       <c r="B22" t="n">
         <v>10</v>
       </c>
-      <c r="C22" t="n">
-        <v>2.491392306672088</v>
-      </c>
-      <c r="D22" t="n">
-        <v>17.86931821250781</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1120,12 +984,6 @@
       <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
-        <v>3.976514962469605</v>
-      </c>
-      <c r="D23" t="n">
-        <v>19.60629096411755</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1134,12 +992,6 @@
       <c r="B24" t="n">
         <v>15</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.666408471373924</v>
-      </c>
-      <c r="D24" t="n">
-        <v>21.59294214326417</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1148,12 +1000,6 @@
       <c r="B25" t="n">
         <v>16</v>
       </c>
-      <c r="C25" t="n">
-        <v>8.650721604159374</v>
-      </c>
-      <c r="D25" t="n">
-        <v>23.63115279117789</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1162,12 +1008,6 @@
       <c r="B26" t="n">
         <v>17</v>
       </c>
-      <c r="C26" t="n">
-        <v>9.544514022518749</v>
-      </c>
-      <c r="D26" t="n">
-        <v>24.63905621786057</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1176,12 +1016,6 @@
       <c r="B27" t="n">
         <v>17</v>
       </c>
-      <c r="C27" t="n">
-        <v>9.258362548266311</v>
-      </c>
-      <c r="D27" t="n">
-        <v>24.57768394099404</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1190,12 +1024,6 @@
       <c r="B28" t="n">
         <v>17</v>
       </c>
-      <c r="C28" t="n">
-        <v>9.298648075449613</v>
-      </c>
-      <c r="D28" t="n">
-        <v>24.82719789139326</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1204,12 +1032,6 @@
       <c r="B29" t="n">
         <v>18</v>
       </c>
-      <c r="C29" t="n">
-        <v>10.61401337999707</v>
-      </c>
-      <c r="D29" t="n">
-        <v>25.48158984623494</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1218,12 +1040,6 @@
       <c r="B30" t="n">
         <v>18</v>
       </c>
-      <c r="C30" t="n">
-        <v>10.34991847544637</v>
-      </c>
-      <c r="D30" t="n">
-        <v>25.30276099256608</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1232,12 +1048,6 @@
       <c r="B31" t="n">
         <v>18</v>
       </c>
-      <c r="C31" t="n">
-        <v>10.53684903816501</v>
-      </c>
-      <c r="D31" t="n">
-        <v>25.7534097386284</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1246,12 +1056,6 @@
       <c r="B32" t="n">
         <v>19</v>
       </c>
-      <c r="C32" t="n">
-        <v>10.38622753865239</v>
-      </c>
-      <c r="D32" t="n">
-        <v>25.9543418011892</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1260,12 +1064,6 @@
       <c r="B33" t="n">
         <v>19</v>
       </c>
-      <c r="C33" t="n">
-        <v>11.00977308022365</v>
-      </c>
-      <c r="D33" t="n">
-        <v>26.4393451885655</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1273,12 +1071,6 @@
       </c>
       <c r="B34" t="n">
         <v>19</v>
-      </c>
-      <c r="C34" t="n">
-        <v>11.690369109223</v>
-      </c>
-      <c r="D34" t="n">
-        <v>26.88986555005556</v>
       </c>
     </row>
   </sheetData>
